--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 1 (35, 1, 31, 14, 19)/MDD 3 (37, 24, 6, 54, 21)/ANN_128nodes_Uniform0.05Virtual_Control(35, 1, 31, 14, 19)_MDD(37, 24, 6, 54, 21)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 1 (35, 1, 31, 14, 19)/MDD 3 (37, 24, 6, 54, 21)/ANN_128nodes_Uniform0.05Virtual_Control(35, 1, 31, 14, 19)_MDD(37, 24, 6, 54, 21)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999701328728769</v>
+        <v>0.9999999435414485</v>
       </c>
       <c r="E2">
-        <v>0.9999701328728769</v>
+        <v>0.9999999435414485</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999999998079454</v>
+        <v>0.9999999987657784</v>
       </c>
       <c r="E3">
-        <v>0.9999999998079454</v>
+        <v>0.9999999987657784</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>9.35914582214111E-09</v>
+        <v>1.345302800396394E-09</v>
       </c>
       <c r="E4">
-        <v>9.35914582214111E-09</v>
+        <v>1.345302800396394E-09</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9334637707939445</v>
+        <v>0.9993654803362613</v>
       </c>
       <c r="E5">
-        <v>0.9334637707939445</v>
+        <v>0.9993654803362613</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -509,13 +509,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.7652809034687753</v>
+        <v>0.04485462019112854</v>
       </c>
       <c r="E6">
-        <v>0.7652809034687753</v>
+        <v>0.04485462019112854</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999998590485</v>
+        <v>0.9999999976328175</v>
       </c>
       <c r="E7">
-        <v>1.409514727157557E-10</v>
+        <v>2.367182450058181E-09</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9997884761116299</v>
+        <v>0.9998470511737478</v>
       </c>
       <c r="E8">
-        <v>0.000211523888370091</v>
+        <v>0.0001529488262521639</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.71006873127356E-09</v>
+        <v>1.03776861125329E-07</v>
       </c>
       <c r="E9">
-        <v>0.9999999972899313</v>
+        <v>0.9999998962231389</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9605085939387746</v>
+        <v>0.999805785079903</v>
       </c>
       <c r="E10">
-        <v>0.03949140606122536</v>
+        <v>0.0001942149200969689</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0004504762846154552</v>
+        <v>0.0009588548240338831</v>
       </c>
       <c r="E11">
-        <v>0.9995495237153845</v>
+        <v>0.9990411451759661</v>
       </c>
       <c r="F11">
-        <v>6.442337036132812</v>
+        <v>6.764225959777832</v>
       </c>
       <c r="G11">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
